--- a/medicine/Pharmacie/Bromo-DragonFly/Bromo-DragonFly.xlsx
+++ b/medicine/Pharmacie/Bromo-DragonFly/Bromo-DragonFly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bromo-DragonFly, parfois désigné comme BDF, est un psychotrope hallucinogène psychédélique lié à la famille des phényléthylamines.
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bromo-DragonFly a une stéréoisomérie et la R(–)-bromo-DragonFly est le stéréoisomère le plus actif.
 </t>
@@ -544,10 +558,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La bromo-DragonFly a une affinité pour les récepteurs sérotoninergiques 5-HT2B et 5-HT2C, mais son action hallucinogène serait atténuée par son action agoniste des récepteurs 5-HT2A[réf. nécessaire].
-La dose efficace est de 100  à   800 μg, ce qui en fait un hallucinogène puissant, avec une durée d'action considérée comme très longue, les effets pouvant durer de 12 à 24 heures[2],[3].
+La dose efficace est de 100  à   800 μg, ce qui en fait un hallucinogène puissant, avec une durée d'action considérée comme très longue, les effets pouvant durer de 12 à 24 heures,.
 </t>
         </is>
       </c>
